--- a/data/historical_quotes.xlsx
+++ b/data/historical_quotes.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,26 +476,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45852</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crispy - USD (780.0)</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="D2" t="n">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="E2" t="n">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="F2" t="n">
-        <v>998400</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>955500</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-42900</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -503,23 +505,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>BBVA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="D3" t="n">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="E3" t="n">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="F3" t="n">
-        <v>955500</v>
+        <v>971100</v>
       </c>
       <c r="G3" t="n">
-        <v>-42900</v>
+        <v>-27300</v>
       </c>
     </row>
     <row r="4">
@@ -528,23 +530,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BBVA</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="D4" t="n">
         <v>1285</v>
       </c>
       <c r="E4" t="n">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F4" t="n">
-        <v>971100</v>
+        <v>963300</v>
       </c>
       <c r="G4" t="n">
-        <v>-27300</v>
+        <v>-35100</v>
       </c>
     </row>
     <row r="5">
@@ -553,48 +555,146 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Info Dólar MEP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1235</v>
+        <v>1263.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1285</v>
+        <v>1264.35</v>
       </c>
       <c r="E5" t="n">
-        <v>1260</v>
+        <v>1264.07</v>
       </c>
       <c r="F5" t="n">
-        <v>963300</v>
+        <v>985764</v>
       </c>
       <c r="G5" t="n">
-        <v>-35100</v>
+        <v>-12636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45861</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Crispy - USD (780.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="F6" t="n">
+        <v>998400</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BNA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1255</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F7" t="n">
+        <v>978900</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-19500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1275</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F8" t="n">
+        <v>994500</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3900</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patagonia</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1285</v>
+      </c>
+      <c r="F9" t="n">
+        <v>982800</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-15600</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Info Dólar MEP</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1263.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1264.35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1264.07</v>
-      </c>
-      <c r="F6" t="n">
-        <v>985764</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-12636</v>
+      <c r="C10" t="n">
+        <v>1294.19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1294.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1294.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1009468.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11068.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical_quotes.xlsx
+++ b/data/historical_quotes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -43,19 +43,19 @@
     <t xml:space="preserve">Dif ARS</t>
   </si>
   <si>
+    <t xml:space="preserve">BNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patagonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info Dólar MEP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crispy - USD (780.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patagonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info Dólar MEP</t>
   </si>
 </sst>
 </file>
@@ -64,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -146,21 +146,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -172,23 +168,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -372,244 +351,336 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>45852</v>
+      <c r="A2" s="2" t="n">
+        <v>45861</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>998400</v>
+        <v>955500</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-42900</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>45861</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1225</v>
+        <v>1245</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>955500</v>
+        <v>971100</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-42900</v>
+        <v>-27300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>45861</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1285</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>971100</v>
+        <v>963300</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-27300</v>
+        <v>-35100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>45861</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1235</v>
+        <v>1263.8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1285</v>
+        <v>1264.35</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1260</v>
+        <v>1264.07</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>963300</v>
+        <v>985764</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-35100</v>
+        <v>-12636</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>45861</v>
+      <c r="A6" s="2" t="n">
+        <v>45866</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1263.8</v>
+        <v>1255</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1264.35</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1264.07</v>
+        <v>1280</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>985764</v>
+        <v>978900</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-12636</v>
+        <v>-19500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1305</v>
+        <v>1315</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>978900</v>
+        <v>994500</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-19500</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>994500</v>
+        <v>982800</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-3900</v>
+        <v>-15600</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1260</v>
+        <v>1294.19</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1310</v>
+        <v>1294.95</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1285</v>
+        <v>1294.57</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>982800</v>
+        <v>1009468.2</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-15600</v>
+        <v>11068.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>45866</v>
+      <c r="A10" s="2" t="n">
+        <v>45852</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1294.19</v>
+        <v>1240</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1294.95</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1294.57</v>
+        <v>1260</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1009468.2</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>11068.2</v>
+        <v>998400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1315</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1010100</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1315</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1010100</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1325</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1014000</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1324.15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1325.68</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1324.91</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1032837</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>34437</v>
       </c>
     </row>
   </sheetData>
